--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_238__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_238__Reeval_LHS_Modell_1.2.xlsx
@@ -5879,19 +5879,19 @@
                   <c:v>50.91418838500977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.36760711669922</c:v>
+                  <c:v>65.36759185791016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.44673538208008</c:v>
+                  <c:v>48.44672775268555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.38217544555664</c:v>
+                  <c:v>53.38216781616211</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60.03515625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.72299575805664</c:v>
+                  <c:v>55.72298812866211</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>49.29825973510742</c:v>
@@ -5903,25 +5903,25 @@
                   <c:v>50.94992828369141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.10734176635742</c:v>
+                  <c:v>57.10735321044922</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>73.81336212158203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.58674240112305</c:v>
+                  <c:v>47.58675384521484</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67.38167572021484</c:v>
+                  <c:v>67.38168334960938</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>83.09342193603516</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.02929306030273</c:v>
+                  <c:v>38.02928161621094</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86.69416809082031</c:v>
+                  <c:v>86.69419097900391</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>51.97674942016602</c:v>
@@ -5933,19 +5933,19 @@
                   <c:v>67.33374786376953</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>57.90665817260742</c:v>
+                  <c:v>57.90665054321289</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59.77132415771484</c:v>
+                  <c:v>59.77132797241211</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.65442276000977</c:v>
+                  <c:v>59.6544303894043</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>52.84479904174805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>82.67448425292969</c:v>
+                  <c:v>82.67446899414062</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>68.03015899658203</c:v>
@@ -5954,10 +5954,10 @@
                   <c:v>70.10738372802734</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>87.085693359375</c:v>
+                  <c:v>87.08570098876953</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>54.38417434692383</c:v>
+                  <c:v>54.38418197631836</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44.57989501953125</c:v>
@@ -5966,37 +5966,37 @@
                   <c:v>45.3320198059082</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59.80239486694336</c:v>
+                  <c:v>59.80239105224609</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30.85260581970215</c:v>
+                  <c:v>30.85260200500488</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41.92927169799805</c:v>
+                  <c:v>41.92927932739258</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>72.44748687744141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>55.90690994262695</c:v>
+                  <c:v>55.90691757202148</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23.33907890319824</c:v>
+                  <c:v>23.33907699584961</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>62.40168380737305</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.76156997680664</c:v>
+                  <c:v>41.76157379150391</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.09423828125</c:v>
+                  <c:v>35.09424591064453</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.26576232910156</c:v>
+                  <c:v>42.2657585144043</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>85.33706665039062</c:v>
+                  <c:v>85.33707427978516</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>64.57548522949219</c:v>
@@ -6005,19 +6005,19 @@
                   <c:v>26.33734512329102</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.37218475341797</c:v>
+                  <c:v>51.37217330932617</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>54.31760025024414</c:v>
+                  <c:v>54.31759262084961</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34.30701446533203</c:v>
+                  <c:v>34.3070182800293</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>60.90446853637695</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45.69606781005859</c:v>
+                  <c:v>45.69606018066406</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>51.16901779174805</c:v>
@@ -6026,52 +6026,52 @@
                   <c:v>46.97454452514648</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.8706169128418</c:v>
+                  <c:v>60.87060928344727</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.90061950683594</c:v>
+                  <c:v>49.90061187744141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>60.37015151977539</c:v>
+                  <c:v>60.37014007568359</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.64086532592773</c:v>
+                  <c:v>55.64085006713867</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>61.77869033813477</c:v>
+                  <c:v>61.77870178222656</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45.24896621704102</c:v>
+                  <c:v>45.24897003173828</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>83.49458312988281</c:v>
+                  <c:v>83.49459075927734</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>36.11774063110352</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.85289001464844</c:v>
+                  <c:v>56.85287475585938</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38.65909957885742</c:v>
+                  <c:v>38.65910720825195</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>76.42686462402344</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56.95198822021484</c:v>
+                  <c:v>56.95198440551758</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>49.02892303466797</c:v>
+                  <c:v>49.02891540527344</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>58.74620819091797</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.41489791870117</c:v>
+                  <c:v>49.4149055480957</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63.21011352539062</c:v>
+                  <c:v>63.21011734008789</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>72.11305999755859</c:v>
@@ -6083,16 +6083,16 @@
                   <c:v>55.47584533691406</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>86.68948364257812</c:v>
+                  <c:v>86.68947601318359</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.81379699707031</c:v>
+                  <c:v>70.81377410888672</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>60.34943389892578</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52.68123626708984</c:v>
+                  <c:v>52.68123245239258</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>54.94136428833008</c:v>
@@ -6101,19 +6101,19 @@
                   <c:v>52.25314331054688</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22.36165237426758</c:v>
+                  <c:v>22.36165046691895</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>23.55594635009766</c:v>
+                  <c:v>23.55594062805176</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>38.26715087890625</c:v>
+                  <c:v>38.26715850830078</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>84.40052032470703</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42.22075653076172</c:v>
+                  <c:v>42.22076416015625</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>67.37857818603516</c:v>
@@ -6128,43 +6128,43 @@
                   <c:v>47.74065017700195</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>54.63591766357422</c:v>
+                  <c:v>54.63592529296875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>27.34846878051758</c:v>
+                  <c:v>27.34846496582031</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88.94701385498047</c:v>
+                  <c:v>88.94700622558594</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>60.45731735229492</c:v>
+                  <c:v>60.45732498168945</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>80.71643829345703</c:v>
+                  <c:v>80.71642303466797</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>64.51215362548828</c:v>
+                  <c:v>64.51214599609375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>51.42074584960938</c:v>
+                  <c:v>51.42073822021484</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>71.924560546875</c:v>
+                  <c:v>71.92456817626953</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>45.48201370239258</c:v>
+                  <c:v>45.48200607299805</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>18.34415054321289</c:v>
+                  <c:v>18.34415245056152</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>46.38735580444336</c:v>
+                  <c:v>46.38736343383789</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>47.42239761352539</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>30.2331657409668</c:v>
+                  <c:v>30.23316955566406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.36760711669922</v>
+        <v>65.36759185791016</v>
       </c>
       <c r="G4">
         <v>101</v>
@@ -6955,7 +6955,7 @@
         <v>88.07989999999999</v>
       </c>
       <c r="F5">
-        <v>48.44673538208008</v>
+        <v>48.44672775268555</v>
       </c>
       <c r="G5">
         <v>101</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.38217544555664</v>
+        <v>53.38216781616211</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>55.72299575805664</v>
+        <v>55.72298812866211</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>57.10734176635742</v>
+        <v>57.10735321044922</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>47.58674240112305</v>
+        <v>47.58675384521484</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>67.38167572021484</v>
+        <v>67.38168334960938</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>38.02929306030273</v>
+        <v>38.02928161621094</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>86.69416809082031</v>
+        <v>86.69419097900391</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>57.90665817260742</v>
+        <v>57.90665054321289</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>59.77132415771484</v>
+        <v>59.77132797241211</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>48.1493</v>
       </c>
       <c r="F24">
-        <v>59.65442276000977</v>
+        <v>59.6544303894043</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>98.4127</v>
       </c>
       <c r="F26">
-        <v>82.67448425292969</v>
+        <v>82.67446899414062</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>87.085693359375</v>
+        <v>87.08570098876953</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>54.38417434692383</v>
+        <v>54.38418197631836</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>91.72880000000001</v>
       </c>
       <c r="F33">
-        <v>59.80239486694336</v>
+        <v>59.80239105224609</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>30.85260581970215</v>
+        <v>30.85260200500488</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>41.92927169799805</v>
+        <v>41.92927932739258</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>55.90690994262695</v>
+        <v>55.90691757202148</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>23.33907890319824</v>
+        <v>23.33907699584961</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>41.76156997680664</v>
+        <v>41.76157379150391</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>35.09423828125</v>
+        <v>35.09424591064453</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>42.26576232910156</v>
+        <v>42.2657585144043</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>85.33706665039062</v>
+        <v>85.33707427978516</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>51.37218475341797</v>
+        <v>51.37217330932617</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>54.31760025024414</v>
+        <v>54.31759262084961</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>34.30701446533203</v>
+        <v>34.3070182800293</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>45.69606781005859</v>
+        <v>45.69606018066406</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>60.8706169128418</v>
+        <v>60.87060928344727</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>49.90061950683594</v>
+        <v>49.90061187744141</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>92.267</v>
       </c>
       <c r="F55">
-        <v>60.37015151977539</v>
+        <v>60.37014007568359</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>55.64086532592773</v>
+        <v>55.64085006713867</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>67.7923</v>
       </c>
       <c r="F57">
-        <v>61.77869033813477</v>
+        <v>61.77870178222656</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>45.24896621704102</v>
+        <v>45.24897003173828</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>83.49458312988281</v>
+        <v>83.49459075927734</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>56.85289001464844</v>
+        <v>56.85287475585938</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>38.65909957885742</v>
+        <v>38.65910720825195</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>93.4151</v>
       </c>
       <c r="F64">
-        <v>56.95198822021484</v>
+        <v>56.95198440551758</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>49.02892303466797</v>
+        <v>49.02891540527344</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>49.41489791870117</v>
+        <v>49.4149055480957</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>63.21011352539062</v>
+        <v>63.21011734008789</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>86.68948364257812</v>
+        <v>86.68947601318359</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>70.81379699707031</v>
+        <v>70.81377410888672</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>89.6328</v>
       </c>
       <c r="F75">
-        <v>52.68123626708984</v>
+        <v>52.68123245239258</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>22.36165237426758</v>
+        <v>22.36165046691895</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>23.55594635009766</v>
+        <v>23.55594062805176</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>38.26715087890625</v>
+        <v>38.26715850830078</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>97.7243</v>
       </c>
       <c r="F82">
-        <v>42.22075653076172</v>
+        <v>42.22076416015625</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>54.63591766357422</v>
+        <v>54.63592529296875</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>27.34846878051758</v>
+        <v>27.34846496582031</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>94.4674</v>
       </c>
       <c r="F89">
-        <v>88.94701385498047</v>
+        <v>88.94700622558594</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>60.45731735229492</v>
+        <v>60.45732498168945</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>92.1071</v>
       </c>
       <c r="F91">
-        <v>80.71643829345703</v>
+        <v>80.71642303466797</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>64.51215362548828</v>
+        <v>64.51214599609375</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>51.42074584960938</v>
+        <v>51.42073822021484</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>71.924560546875</v>
+        <v>71.92456817626953</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>45.48201370239258</v>
+        <v>45.48200607299805</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>40.7372</v>
       </c>
       <c r="F96">
-        <v>18.34415054321289</v>
+        <v>18.34415245056152</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>46.38735580444336</v>
+        <v>46.38736343383789</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>30.2331657409668</v>
+        <v>30.23316955566406</v>
       </c>
     </row>
     <row r="100" spans="1:6">
